--- a/Civilworks cost/Slope Protection/Fuse Cost.xlsx
+++ b/Civilworks cost/Slope Protection/Fuse Cost.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fuse_Bed" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -179,11 +179,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +385,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -432,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,9 +467,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,6 +502,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,25 +678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:E5"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
@@ -701,8 +706,8 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
     </row>
-    <row r="2" spans="1:6" ht="27" customHeight="1"/>
-    <row r="3" spans="1:6" ht="47.25">
+    <row r="2" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -722,7 +727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.75" customHeight="1">
+    <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -742,7 +747,7 @@
         <v>198.36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30.75" customHeight="1">
+    <row r="5" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="21"/>
       <c r="C5" s="19"/>
@@ -756,7 +761,7 @@
         <v>281.91000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>2</v>
       </c>
@@ -776,7 +781,7 @@
         <v>198.35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1">
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="23"/>
       <c r="C7" s="19"/>
@@ -790,7 +795,7 @@
         <v>170.15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="46.5">
+    <row r="8" spans="1:6" ht="45.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -810,7 +815,7 @@
         <v>283.01</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5">
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -830,7 +835,7 @@
         <v>304.08999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5">
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -850,7 +855,7 @@
         <v>267.74</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="31.5">
+    <row r="11" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -870,7 +875,7 @@
         <v>304.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="47.25">
+    <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -890,7 +895,7 @@
         <v>303.83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -923,20 +928,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:5" ht="18.75">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -944,7 +949,7 @@
         <v>2219849.34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -952,7 +957,7 @@
         <v>12181117</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -960,7 +965,7 @@
         <v>12048766</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -968,7 +973,7 @@
         <v>10933879</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -976,7 +981,7 @@
         <v>16844694</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
@@ -984,7 +989,7 @@
         <v>7630604</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.75">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
@@ -992,20 +997,20 @@
         <v>9241735</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="18.75">
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="21">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="7">
         <f>SUM(B7:B15)</f>
         <v>71100644.340000004</v>
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E18" s="8"/>
     </row>
   </sheetData>
@@ -1015,12 +1020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
